--- a/dofiles/df_modelo1.xlsx
+++ b/dofiles/df_modelo1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,16 +391,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5021.82304713201</v>
+        <v>8.56450344290489</v>
       </c>
       <c r="B2">
-        <v>0.184517049720239</v>
+        <v>0.181181767057434</v>
       </c>
       <c r="C2">
-        <v>0.194728129234136</v>
+        <v>0.179914242759861</v>
       </c>
       <c r="D2">
-        <v>0.858420498779997</v>
+        <v>0.822391410498332</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -411,16 +411,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>5127.11919363535</v>
+        <v>8.557949888313351</v>
       </c>
       <c r="B3">
-        <v>0.197062947726853</v>
+        <v>0.195656093908528</v>
       </c>
       <c r="C3">
-        <v>0.194790850799243</v>
+        <v>0.197685631490761</v>
       </c>
       <c r="D3">
-        <v>0.874612601366938</v>
+        <v>0.86728604073086</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>5237.49097669432</v>
+        <v>8.566448411355861</v>
       </c>
       <c r="B4">
-        <v>0.183947231701589</v>
+        <v>0.184622488224596</v>
       </c>
       <c r="C4">
-        <v>0.214311819454063</v>
+        <v>0.213838790790676</v>
       </c>
       <c r="D4">
-        <v>0.881463437053743</v>
+        <v>0.891163775117892</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -451,16 +451,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5432.71196530484</v>
+        <v>8.57890678510025</v>
       </c>
       <c r="B5">
-        <v>0.197561113463972</v>
+        <v>0.201065797224841</v>
       </c>
       <c r="C5">
-        <v>0.205179024673046</v>
+        <v>0.217378843505345</v>
       </c>
       <c r="D5">
-        <v>0.887650473391231</v>
+        <v>0.924390898449648</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -471,16 +471,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5629.59539741614</v>
+        <v>8.58620767533324</v>
       </c>
       <c r="B6">
-        <v>0.172701668803272</v>
+        <v>0.18480240730912</v>
       </c>
       <c r="C6">
-        <v>0.207118294622693</v>
+        <v>0.219996257706038</v>
       </c>
       <c r="D6">
-        <v>0.890763149171657</v>
+        <v>0.93407061923632</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -491,16 +491,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>5833.37998332953</v>
+        <v>8.59042512921523</v>
       </c>
       <c r="B7">
-        <v>0.167740021900765</v>
+        <v>0.182618911748926</v>
       </c>
       <c r="C7">
-        <v>0.235847990343095</v>
+        <v>0.252580569713824</v>
       </c>
       <c r="D7">
-        <v>0.904967041128522</v>
+        <v>0.973898547852693</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>5948.75632477628</v>
+        <v>8.60297690327986</v>
       </c>
       <c r="B8">
-        <v>0.17983381269428</v>
+        <v>0.196876162661975</v>
       </c>
       <c r="C8">
-        <v>0.208582711332316</v>
+        <v>0.227199043591571</v>
       </c>
       <c r="D8">
-        <v>0.938786690577082</v>
+        <v>1.03515368727665</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>6326.98749168603</v>
+        <v>8.626776227752</v>
       </c>
       <c r="B9">
-        <v>0.202365921655556</v>
+        <v>0.228254015347995</v>
       </c>
       <c r="C9">
-        <v>0.198471020360951</v>
+        <v>0.231305186166986</v>
       </c>
       <c r="D9">
-        <v>0.982831658846398</v>
+        <v>1.13213996380781</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>6669.56802314843</v>
+        <v>8.62829057266776</v>
       </c>
       <c r="B10">
-        <v>0.159744621727158</v>
+        <v>0.192962908935343</v>
       </c>
       <c r="C10">
-        <v>0.2367136358625</v>
+        <v>0.292837661877072</v>
       </c>
       <c r="D10">
-        <v>1.00637388649193</v>
+        <v>1.20740350501862</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -571,16 +571,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>7188.80675853079</v>
+        <v>8.648333987203049</v>
       </c>
       <c r="B11">
-        <v>0.200650360953771</v>
+        <v>0.252913048133586</v>
       </c>
       <c r="C11">
-        <v>0.231713034054381</v>
+        <v>0.28081858304326</v>
       </c>
       <c r="D11">
-        <v>0.991847833372043</v>
+        <v>1.24675602495409</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -591,16 +591,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>7336.40721267113</v>
+        <v>8.62670181541832</v>
       </c>
       <c r="B12">
-        <v>0.206593434224084</v>
+        <v>0.271195405581696</v>
       </c>
       <c r="C12">
-        <v>0.20416371337716</v>
+        <v>0.267285731708369</v>
       </c>
       <c r="D12">
-        <v>0.958830616864301</v>
+        <v>1.27138557428641</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>7063.06061682308</v>
+        <v>8.584309382763991</v>
       </c>
       <c r="B13">
-        <v>0.189680137665775</v>
+        <v>0.248954167073632</v>
       </c>
       <c r="C13">
-        <v>0.201339700483376</v>
+        <v>0.270060855242285</v>
       </c>
       <c r="D13">
-        <v>0.89952455391474</v>
+        <v>1.18087926704969</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>7001.43530904101</v>
+        <v>8.56022940856613</v>
       </c>
       <c r="B14">
-        <v>0.201629933029645</v>
+        <v>0.271577331621696</v>
       </c>
       <c r="C14">
-        <v>0.1610348023357</v>
+        <v>0.211327421147444</v>
       </c>
       <c r="D14">
-        <v>0.858081230384934</v>
+        <v>1.14727492441103</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -651,16 +651,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>7078.86373308906</v>
+        <v>8.569899293664051</v>
       </c>
       <c r="B15">
-        <v>0.203802899858072</v>
+        <v>0.272457683028724</v>
       </c>
       <c r="C15">
-        <v>0.147473429099781</v>
+        <v>0.198442771498804</v>
       </c>
       <c r="D15">
-        <v>0.845925908101412</v>
+        <v>1.136098232118</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -671,16 +671,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>7248.38490456612</v>
+        <v>8.58192191640269</v>
       </c>
       <c r="B16">
-        <v>0.20382978017278</v>
+        <v>0.275601692484535</v>
       </c>
       <c r="C16">
-        <v>0.134577729355047</v>
+        <v>0.181280333983084</v>
       </c>
       <c r="D16">
-        <v>0.868681659212237</v>
+        <v>1.17716357302944</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>7341.86288964365</v>
+        <v>8.58102341555065</v>
       </c>
       <c r="B17">
-        <v>0.202278712549397</v>
+        <v>0.276314741785059</v>
       </c>
       <c r="C17">
-        <v>0.137873967766637</v>
+        <v>0.193836922181276</v>
       </c>
       <c r="D17">
-        <v>0.909470974086831</v>
+        <v>1.24144522712662</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>7504.14012732546</v>
+        <v>8.58151648629419</v>
       </c>
       <c r="B18">
-        <v>0.201855822140607</v>
+        <v>0.28327761293207</v>
       </c>
       <c r="C18">
-        <v>0.143783534548846</v>
+        <v>0.205977891752494</v>
       </c>
       <c r="D18">
-        <v>0.961007336924125</v>
+        <v>1.3400504486123</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>7566.20770749057</v>
+        <v>8.589877061062561</v>
       </c>
       <c r="B19">
-        <v>0.185935294473321</v>
+        <v>0.259323405364645</v>
       </c>
       <c r="C19">
-        <v>0.149529571117511</v>
+        <v>0.200742039137893</v>
       </c>
       <c r="D19">
-        <v>1.00599066510769</v>
+        <v>1.43818699239169</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>7954.03348221541</v>
+        <v>8.61451897848967</v>
       </c>
       <c r="B20">
-        <v>0.183036959491399</v>
+        <v>0.262006421689279</v>
       </c>
       <c r="C20">
-        <v>0.167409031497681</v>
+        <v>0.238699175298044</v>
       </c>
       <c r="D20">
-        <v>1.01716756643235</v>
+        <v>1.46212678477507</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>8403.23100346799</v>
+        <v>8.62049012834818</v>
       </c>
       <c r="B21">
-        <v>0.196058149368823</v>
+        <v>0.293974631328065</v>
       </c>
       <c r="C21">
-        <v>0.175933079151423</v>
+        <v>0.267852969644671</v>
       </c>
       <c r="D21">
-        <v>1.03564983552127</v>
+        <v>1.50817765124374</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>8366.40195972983</v>
+        <v>8.621034446382099</v>
       </c>
       <c r="B22">
-        <v>0.196532789653313</v>
+        <v>0.293887129026329</v>
       </c>
       <c r="C22">
-        <v>0.187032966546329</v>
+        <v>0.270959326782016</v>
       </c>
       <c r="D22">
-        <v>1.18487574042165</v>
+        <v>1.78744303911043</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>9151.29917404337</v>
+        <v>8.650068721508591</v>
       </c>
       <c r="B23">
-        <v>0.19396931198296</v>
+        <v>0.306499730145325</v>
       </c>
       <c r="C23">
-        <v>0.182277536688753</v>
+        <v>0.295636230543374</v>
       </c>
       <c r="D23">
-        <v>1.07921117274991</v>
+        <v>1.75416766752462</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>9358.924427917569</v>
+        <v>8.67084137577579</v>
       </c>
       <c r="B24">
-        <v>0.19688149522688</v>
+        <v>0.312118841828465</v>
       </c>
       <c r="C24">
-        <v>0.196093482554339</v>
+        <v>0.309957929254185</v>
       </c>
       <c r="D24">
-        <v>1.10724014224103</v>
+        <v>1.74312006993062</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -851,16 +851,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>9584.77099853545</v>
+        <v>8.65241101143684</v>
       </c>
       <c r="B25">
-        <v>0.172931372407349</v>
+        <v>0.286072379874935</v>
       </c>
       <c r="C25">
-        <v>0.205867293553181</v>
+        <v>0.342414177433517</v>
       </c>
       <c r="D25">
-        <v>1.12898504208324</v>
+        <v>1.81822937430341</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -871,16 +871,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>9952.182221254359</v>
+        <v>8.694395390928079</v>
       </c>
       <c r="B26">
-        <v>0.211831189306594</v>
+        <v>0.348065060286907</v>
       </c>
       <c r="C26">
-        <v>0.21870462005045</v>
+        <v>0.361458842458679</v>
       </c>
       <c r="D26">
-        <v>1.16033643017181</v>
+        <v>1.90822238089338</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -891,16 +891,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>9943.80247186222</v>
+        <v>8.68066570632816</v>
       </c>
       <c r="B27">
-        <v>0.166637442429346</v>
+        <v>0.276132346370034</v>
       </c>
       <c r="C27">
-        <v>0.229612066015954</v>
+        <v>0.379585574048133</v>
       </c>
       <c r="D27">
-        <v>1.16278671975933</v>
+        <v>1.95892083552276</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -911,16 +911,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>10250.744913567</v>
+        <v>8.694029676135999</v>
       </c>
       <c r="B28">
-        <v>0.183822539557525</v>
+        <v>0.310522735032399</v>
       </c>
       <c r="C28">
-        <v>0.225112870165404</v>
+        <v>0.379438487733873</v>
       </c>
       <c r="D28">
-        <v>1.13652300489783</v>
+        <v>1.93177913758307</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -931,16 +931,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>10682.5679786783</v>
+        <v>8.71930463673073</v>
       </c>
       <c r="B29">
-        <v>0.196061959904982</v>
+        <v>0.337862276642042</v>
       </c>
       <c r="C29">
-        <v>0.228498183766924</v>
+        <v>0.393639354202817</v>
       </c>
       <c r="D29">
-        <v>1.11952949716842</v>
+        <v>1.93643622596952</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>10730.9123925608</v>
+        <v>8.713600823696639</v>
       </c>
       <c r="B30">
-        <v>0.191249417890193</v>
+        <v>0.330818639488297</v>
       </c>
       <c r="C30">
-        <v>0.217563280614225</v>
+        <v>0.38712897024006</v>
       </c>
       <c r="D30">
-        <v>1.09689252479927</v>
+        <v>1.8664124891229</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>11198.3552745648</v>
+        <v>8.736803506261101</v>
       </c>
       <c r="B31">
-        <v>0.212030493158668</v>
+        <v>0.371942573150478</v>
       </c>
       <c r="C31">
-        <v>0.228225031534839</v>
+        <v>0.392616745737621</v>
       </c>
       <c r="D31">
-        <v>1.0902535929834</v>
+        <v>1.90595647467098</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>11249.855106899</v>
+        <v>8.740403135925559</v>
       </c>
       <c r="B32">
-        <v>0.202223939416748</v>
+        <v>0.356819882154275</v>
       </c>
       <c r="C32">
-        <v>0.235394668774017</v>
+        <v>0.414827844665688</v>
       </c>
       <c r="D32">
-        <v>1.11772281056994</v>
+        <v>2.00163621834205</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>11091.8152907596</v>
+        <v>8.736937936522621</v>
       </c>
       <c r="B33">
-        <v>0.188671755670123</v>
+        <v>0.331903091388485</v>
       </c>
       <c r="C33">
-        <v>0.212058206983326</v>
+        <v>0.371713386285493</v>
       </c>
       <c r="D33">
-        <v>1.11577891915432</v>
+        <v>1.99729373325311</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>11949.6906522905</v>
+        <v>8.75401054776748</v>
       </c>
       <c r="B34">
-        <v>0.20833921928919</v>
+        <v>0.384270780046191</v>
       </c>
       <c r="C34">
-        <v>0.20807220636265</v>
+        <v>0.377429425117125</v>
       </c>
       <c r="D34">
-        <v>1.09823683054076</v>
+        <v>2.01431348351084</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>12205.1548810797</v>
+        <v>8.76300847300476</v>
       </c>
       <c r="B35">
-        <v>0.217503724455145</v>
+        <v>0.403365932923836</v>
       </c>
       <c r="C35">
-        <v>0.201439997327356</v>
+        <v>0.384030996421706</v>
       </c>
       <c r="D35">
-        <v>1.08291337845666</v>
+        <v>1.99004378386666</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>12691.2467826209</v>
+        <v>8.76384158080981</v>
       </c>
       <c r="B36">
-        <v>0.198970838590673</v>
+        <v>0.385682646615064</v>
       </c>
       <c r="C36">
-        <v>0.1978495611805</v>
+        <v>0.383607259157017</v>
       </c>
       <c r="D36">
-        <v>1.05315927040645</v>
+        <v>2.03318219822106</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>12888.1948869424</v>
+        <v>8.781359092859679</v>
       </c>
       <c r="B37">
-        <v>0.190035016080307</v>
+        <v>0.371162327813337</v>
       </c>
       <c r="C37">
-        <v>0.242764928331388</v>
+        <v>0.469623880194909</v>
       </c>
       <c r="D37">
-        <v>1.04302608511622</v>
+        <v>2.07114500670732</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>13273.621216042</v>
+        <v>8.78582039092977</v>
       </c>
       <c r="B38">
-        <v>0.230913447370392</v>
+        <v>0.457324581778309</v>
       </c>
       <c r="C38">
-        <v>0.223060561471118</v>
+        <v>0.448978830861869</v>
       </c>
       <c r="D38">
-        <v>1.01730122912786</v>
+        <v>2.01134195902272</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>13640.4312533576</v>
+        <v>8.77924965727648</v>
       </c>
       <c r="B39">
-        <v>0.203398933086129</v>
+        <v>0.413075573177744</v>
       </c>
       <c r="C39">
-        <v>0.208505747690106</v>
+        <v>0.422534675906686</v>
       </c>
       <c r="D39">
-        <v>0.989489536102136</v>
+        <v>2.00865293838521</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1151,16 +1151,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>14205.7736568692</v>
+        <v>8.81318769288581</v>
       </c>
       <c r="B40">
-        <v>0.211759831994584</v>
+        <v>0.436064825353882</v>
       </c>
       <c r="C40">
-        <v>0.214422050423835</v>
+        <v>0.441837878285049</v>
       </c>
       <c r="D40">
-        <v>0.970482175965719</v>
+        <v>1.99536817159521</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>14374.4239476212</v>
+        <v>8.81844310455172</v>
       </c>
       <c r="B41">
-        <v>0.213036088678765</v>
+        <v>0.446307713855726</v>
       </c>
       <c r="C41">
-        <v>0.22465492165895</v>
+        <v>0.46545124199057</v>
       </c>
       <c r="D41">
-        <v>0.951523072289478</v>
+        <v>2.02050108815169</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>14500.9764005722</v>
+        <v>8.81212944512591</v>
       </c>
       <c r="B42">
-        <v>0.22572027831148</v>
+        <v>0.475413593545809</v>
       </c>
       <c r="C42">
-        <v>0.202379348022079</v>
+        <v>0.437269330622023</v>
       </c>
       <c r="D42">
-        <v>0.945604621496306</v>
+        <v>1.98464555358856</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>15072.9231046153</v>
+        <v>8.834905682138411</v>
       </c>
       <c r="B43">
-        <v>0.228309732159494</v>
+        <v>0.483077479290893</v>
       </c>
       <c r="C43">
-        <v>0.202318212014411</v>
+        <v>0.423328346856807</v>
       </c>
       <c r="D43">
-        <v>0.944343653619105</v>
+        <v>2.00560862223213</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>15229.3117496232</v>
+        <v>8.835253787739809</v>
       </c>
       <c r="B44">
-        <v>0.214274653647198</v>
+        <v>0.461224887624452</v>
       </c>
       <c r="C44">
-        <v>0.202385447445956</v>
+        <v>0.436211668256995</v>
       </c>
       <c r="D44">
-        <v>0.938620791679279</v>
+        <v>2.02383538647649</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>15279.2682572859</v>
+        <v>8.84393501851889</v>
       </c>
       <c r="B45">
-        <v>0.206982548698717</v>
+        <v>0.448501638593707</v>
       </c>
       <c r="C45">
-        <v>0.202575608403977</v>
+        <v>0.433984363007685</v>
       </c>
       <c r="D45">
-        <v>0.940670970218242</v>
+        <v>2.01972088872759</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>15968.9685146152</v>
+        <v>8.870706466983711</v>
       </c>
       <c r="B46">
-        <v>0.217770501612767</v>
+        <v>0.475991994865944</v>
       </c>
       <c r="C46">
-        <v>0.200023800647241</v>
+        <v>0.430138357325376</v>
       </c>
       <c r="D46">
-        <v>0.945024042052614</v>
+        <v>2.07114890302257</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1291,16 +1291,16 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>16111.0146148419</v>
+        <v>8.858237682504409</v>
       </c>
       <c r="B47">
-        <v>0.220466793494406</v>
+        <v>0.48426991955296</v>
       </c>
       <c r="C47">
-        <v>0.179780484872258</v>
+        <v>0.408064573658762</v>
       </c>
       <c r="D47">
-        <v>0.9631921718500061</v>
+        <v>2.11090232657412</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>16019.6363001438</v>
+        <v>8.85525365460728</v>
       </c>
       <c r="B48">
-        <v>0.232362978725384</v>
+        <v>0.514024577705876</v>
       </c>
       <c r="C48">
-        <v>0.189735539349879</v>
+        <v>0.420546406115943</v>
       </c>
       <c r="D48">
-        <v>0.985886070983829</v>
+        <v>2.1793723290853</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>16665.5864491037</v>
+        <v>8.87040754189087</v>
       </c>
       <c r="B49">
-        <v>0.220187783509491</v>
+        <v>0.505766322281036</v>
       </c>
       <c r="C49">
-        <v>0.183639052197113</v>
+        <v>0.416690420711297</v>
       </c>
       <c r="D49">
-        <v>0.991468692078173</v>
+        <v>2.27055235834592</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>16590.7253946322</v>
+        <v>8.882978036972821</v>
       </c>
       <c r="B50">
-        <v>0.217017458104338</v>
+        <v>0.486507993293526</v>
       </c>
       <c r="C50">
-        <v>0.176981731547393</v>
+        <v>0.406030597710603</v>
       </c>
       <c r="D50">
-        <v>0.97494699388166</v>
+        <v>2.20997570592569</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1371,16 +1371,16 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>15722.8032301969</v>
+        <v>8.792653325256991</v>
       </c>
       <c r="B51">
-        <v>0.207584858995088</v>
+        <v>0.472431178684226</v>
       </c>
       <c r="C51">
-        <v>0.170338553810245</v>
+        <v>0.38409195449479</v>
       </c>
       <c r="D51">
-        <v>0.9520537986097341</v>
+        <v>2.16222386394211</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1391,16 +1391,16 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>15745.8878771207</v>
+        <v>8.79648481662684</v>
       </c>
       <c r="B52">
-        <v>0.242729785091218</v>
+        <v>0.557101411739551</v>
       </c>
       <c r="C52">
-        <v>0.140815512106325</v>
+        <v>0.324216518089903</v>
       </c>
       <c r="D52">
-        <v>0.924690861214687</v>
+        <v>2.12288058244717</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>15582.6536857269</v>
+        <v>8.78834877796282</v>
       </c>
       <c r="B53">
-        <v>0.225837230750195</v>
+        <v>0.524180537968682</v>
       </c>
       <c r="C53">
-        <v>0.104187855217621</v>
+        <v>0.239359871461945</v>
       </c>
       <c r="D53">
-        <v>0.909891351250296</v>
+        <v>2.09441452181896</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1431,16 +1431,16 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>15483.2473189519</v>
+        <v>8.7714894829336</v>
       </c>
       <c r="B54">
-        <v>0.203095680341935</v>
+        <v>0.473416958587346</v>
       </c>
       <c r="C54">
-        <v>0.0966582885258557</v>
+        <v>0.214861846919768</v>
       </c>
       <c r="D54">
-        <v>0.927186552760257</v>
+        <v>2.18789931159761</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>16112.777812768</v>
+        <v>8.755141095526881</v>
       </c>
       <c r="B55">
-        <v>0.226077308292182</v>
+        <v>0.543537864773492</v>
       </c>
       <c r="C55">
-        <v>0.0897099620332892</v>
+        <v>0.229002235484206</v>
       </c>
       <c r="D55">
-        <v>0.937904255675603</v>
+        <v>2.24893433715429</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>16174.6475041707</v>
+        <v>8.76661282026477</v>
       </c>
       <c r="B56">
-        <v>0.205577523851443</v>
+        <v>0.498037433856895</v>
       </c>
       <c r="C56">
-        <v>0.102186095089154</v>
+        <v>0.248566519026996</v>
       </c>
       <c r="D56">
-        <v>0.953685752213537</v>
+        <v>2.31697260131397</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>16635.7299712618</v>
+        <v>8.791135485758201</v>
       </c>
       <c r="B57">
-        <v>0.242422085916053</v>
+        <v>0.598563887614839</v>
       </c>
       <c r="C57">
-        <v>0.0883642457382571</v>
+        <v>0.215075857826276</v>
       </c>
       <c r="D57">
-        <v>0.949892969635924</v>
+        <v>2.31731128362822</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1511,16 +1511,16 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>16654.1684159481</v>
+        <v>8.78072905221733</v>
       </c>
       <c r="B58">
-        <v>0.218825440661565</v>
+        <v>0.540749840341702</v>
       </c>
       <c r="C58">
-        <v>0.105753659260208</v>
+        <v>0.256129064109564</v>
       </c>
       <c r="D58">
-        <v>0.928789387419324</v>
+        <v>2.35100638407576</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1531,16 +1531,16 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>15606.8453277608</v>
+        <v>8.67168594402763</v>
       </c>
       <c r="B59">
-        <v>0.263930654590708</v>
+        <v>0.663912697865508</v>
       </c>
       <c r="C59">
-        <v>0.0818174980776656</v>
+        <v>0.215121770494401</v>
       </c>
       <c r="D59">
-        <v>0.79022241560285</v>
+        <v>1.99590943447271</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>16663.9554149555</v>
+        <v>8.742640728577269</v>
       </c>
       <c r="B60">
-        <v>0.211713965520864</v>
+        <v>0.538855796314561</v>
       </c>
       <c r="C60">
-        <v>0.0950086891021855</v>
+        <v>0.242998478218256</v>
       </c>
       <c r="D60">
-        <v>0.890360591005296</v>
+        <v>2.24815494250522</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>17051.8771290112</v>
+        <v>8.756582232395809</v>
       </c>
       <c r="B61">
-        <v>0.241966269207662</v>
+        <v>0.632949477489733</v>
       </c>
       <c r="C61">
-        <v>0.108237212911953</v>
+        <v>0.27730112755105</v>
       </c>
       <c r="D61">
-        <v>0.9271178588861631</v>
+        <v>2.39677624323308</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>17720.1264574694</v>
+        <v>8.802760105660219</v>
       </c>
       <c r="B62">
-        <v>0.260505241642011</v>
+        <v>0.665562788671124</v>
       </c>
       <c r="C62">
-        <v>0.117477879654519</v>
+        <v>0.30549577596726</v>
       </c>
       <c r="D62">
-        <v>0.9866476629751471</v>
+        <v>2.5257152317587</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>18615.5238480306</v>
+        <v>8.82325079853438</v>
       </c>
       <c r="B63">
-        <v>0.222308791476648</v>
+        <v>0.571094995644207</v>
       </c>
       <c r="C63">
-        <v>0.145370481375067</v>
+        <v>0.375668557908475</v>
       </c>
       <c r="D63">
-        <v>1.05986621188952</v>
+        <v>2.7714046339763</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>18603.2503231153</v>
+        <v>8.825560163259251</v>
       </c>
       <c r="B64">
-        <v>0.275205319409918</v>
+        <v>0.7156559079952281</v>
       </c>
       <c r="C64">
-        <v>0.132363147860632</v>
+        <v>0.34575088659003</v>
       </c>
       <c r="D64">
-        <v>1.10488385813029</v>
+        <v>2.9376024945901</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1651,21 +1651,101 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>19663.6706922526</v>
+        <v>8.839130259648121</v>
       </c>
       <c r="B65">
-        <v>0.260827371434381</v>
+        <v>0.725600198125741</v>
       </c>
       <c r="C65">
-        <v>0.122427304751756</v>
+        <v>0.331124489185251</v>
       </c>
       <c r="D65">
-        <v>1.10187583042868</v>
+        <v>2.98056075263344</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>8.835074234374011</v>
+      </c>
+      <c r="B66">
+        <v>0.655263125628611</v>
+      </c>
+      <c r="C66">
+        <v>0.353247307350716</v>
+      </c>
+      <c r="D66">
+        <v>3.2210968382022</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>8.853292696421461</v>
+      </c>
+      <c r="B67">
+        <v>0.662843682910881</v>
+      </c>
+      <c r="C67">
+        <v>0.36388013139424</v>
+      </c>
+      <c r="D67">
+        <v>3.28609250873458</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>8.844188972405069</v>
+      </c>
+      <c r="B68">
+        <v>0.669953280035047</v>
+      </c>
+      <c r="C68">
+        <v>0.372213056848623</v>
+      </c>
+      <c r="D68">
+        <v>3.35934139856525</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>8.848530688410939</v>
+      </c>
+      <c r="B69">
+        <v>0.60733760856289</v>
+      </c>
+      <c r="C69">
+        <v>0.356302063454589</v>
+      </c>
+      <c r="D69">
+        <v>3.37385856086166</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>1</v>
       </c>
     </row>
